--- a/Baseline/Sample Data/WalkingData.xlsx
+++ b/Baseline/Sample Data/WalkingData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="55" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="9180" firstSheet="55" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="RAnkleAngles_X_deg" sheetId="1" r:id="rId1"/>
